--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1960" yWindow="-14700" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="-1960" yWindow="-16880" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
         <color theme="1"/>
         <rFont val="Abyssinica SIL"/>
       </rPr>
-      <t>) በገላችው ለ አንደ ሞተር ሳይክል GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በጥትና አንጠያቃለን።</t>
+      <t>) በገላችው ለ አንደ ሞተር ሳይክል GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በትህትና አንጠያቃለን።</t>
     </r>
   </si>
 </sst>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,12 +331,6 @@
     <font>
       <u/>
       <sz val="32"/>
-      <color theme="1"/>
-      <name val="Abril Fatface"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="30"/>
       <color theme="1"/>
       <name val="Abril Fatface"/>
     </font>
@@ -420,8 +414,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="30"/>
+      <color theme="0"/>
+      <name val="Abril Fatface"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="30"/>
+      <color theme="0"/>
+      <name val="Abril Fatface"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,16 +480,16 @@
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,20 +513,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,13 +535,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,22 +550,25 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
@@ -844,7 +860,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,9 +877,9 @@
       <c r="A2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -888,18 +904,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -535,12 +535,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -549,27 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -873,24 +873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,18 +904,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -943,37 +943,37 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -1024,20 +1024,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1054,10 +1054,10 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="A49" s="27">
         <v>1</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -1068,8 +1068,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="19" t="s">
         <v>2</v>
       </c>
@@ -1078,10 +1078,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
+      <c r="A51" s="27">
         <v>2</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -1092,8 +1092,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="20" t="s">
         <v>33</v>
       </c>
@@ -1102,8 +1102,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="19" t="s">
         <v>28</v>
       </c>
@@ -1112,8 +1112,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="19" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1122,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="19" t="s">
         <v>20</v>
       </c>
@@ -1132,8 +1132,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="19" t="s">
         <v>21</v>
       </c>
@@ -1142,8 +1142,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="19" t="s">
         <v>24</v>
       </c>
@@ -1152,10 +1152,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
+      <c r="A58" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="19" t="s">
@@ -1166,8 +1166,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="19" t="s">
         <v>30</v>
       </c>
@@ -1176,8 +1176,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="19" t="s">
         <v>31</v>
       </c>
@@ -1186,8 +1186,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="19" t="s">
         <v>34</v>
       </c>
@@ -1196,8 +1196,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
@@ -1206,8 +1206,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="19" t="s">
         <v>25</v>
       </c>
@@ -1217,6 +1217,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A15:D19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -1225,12 +1231,6 @@
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -44,20 +44,6 @@
           </rPr>
           <t xml:space="preserve">jx:area(lastCell="D90")
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="devices", var="device", lastCell="D90")</t>
         </r>
       </text>
     </comment>
@@ -535,6 +521,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -553,23 +554,8 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -859,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -874,23 +860,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,18 +890,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -943,37 +929,37 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -1024,20 +1010,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1054,10 +1040,10 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="27">
+      <c r="A49" s="21">
         <v>1</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -1068,8 +1054,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="19" t="s">
         <v>2</v>
       </c>
@@ -1078,10 +1064,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
+      <c r="A51" s="21">
         <v>2</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -1092,8 +1078,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="20" t="s">
         <v>33</v>
       </c>
@@ -1102,8 +1088,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="19" t="s">
         <v>28</v>
       </c>
@@ -1112,8 +1098,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="19" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1108,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="19" t="s">
         <v>20</v>
       </c>
@@ -1132,8 +1118,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="19" t="s">
         <v>21</v>
       </c>
@@ -1142,8 +1128,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="19" t="s">
         <v>24</v>
       </c>
@@ -1152,10 +1138,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="27">
+      <c r="A58" s="21">
         <v>3</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="19" t="s">
@@ -1166,8 +1152,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="19" t="s">
         <v>30</v>
       </c>
@@ -1176,8 +1162,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="19" t="s">
         <v>31</v>
       </c>
@@ -1186,8 +1172,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="19" t="s">
         <v>34</v>
       </c>
@@ -1196,8 +1182,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
@@ -1206,8 +1192,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="19" t="s">
         <v>25</v>
       </c>
@@ -1217,12 +1203,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A15:D19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -1231,6 +1211,12 @@
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ሪፖርት ቀን:
 Report Date:</t>
@@ -224,6 +224,12 @@
       </rPr>
       <t>) በገላችው ለ አንደ ሞተር ሳይክል GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በትህትና አንጠያቃለን።</t>
     </r>
+  </si>
+  <si>
+    <t>የሰሌዳ ቁጥር ምዝገባ ክፍለ ከተማ</t>
+  </si>
+  <si>
+    <t>${device.registrationSubCity}</t>
   </si>
 </sst>
 </file>
@@ -463,9 +469,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,12 +537,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -536,37 +573,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -843,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -860,23 +886,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,18 +916,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -929,37 +955,37 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -1010,20 +1036,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1040,10 +1066,10 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="A49" s="27">
         <v>1</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -1054,8 +1080,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="19" t="s">
         <v>2</v>
       </c>
@@ -1064,10 +1090,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
+      <c r="A51" s="27">
         <v>2</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -1078,8 +1104,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="20" t="s">
         <v>33</v>
       </c>
@@ -1088,8 +1114,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="19" t="s">
         <v>28</v>
       </c>
@@ -1098,8 +1124,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="19" t="s">
         <v>4</v>
       </c>
@@ -1108,8 +1134,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="19" t="s">
         <v>20</v>
       </c>
@@ -1118,8 +1144,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="19" t="s">
         <v>21</v>
       </c>
@@ -1128,95 +1154,105 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
         <v>3</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B59" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="19" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="19" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="19" t="s">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="19" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="19" t="s">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A15:D19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1960" yWindow="-16880" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="7160" yWindow="-19780" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ሪፖርት ቀን:
 Report Date:</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>${device.registrationSubCity}</t>
+  </si>
+  <si>
+    <t>በዚህ የቴክኒክ ገፅ ላይ ያሉ መረጃዎች በትክክል በሲስተማችን የተመዘገቡ መሆኑን እናረጋግጣለን</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +539,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -869,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,23 +895,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,18 +925,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -955,37 +964,37 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -1036,20 +1045,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1062,110 +1071,109 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="27">
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
         <v>1</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B50" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="19" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="29">
         <v>2</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B52" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="20" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="19" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="19" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="19" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="19" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="19" t="s">
         <v>24</v>
       </c>
@@ -1174,10 +1182,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="27">
+      <c r="A59" s="29">
         <v>3</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -1188,8 +1196,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="19" t="s">
         <v>30</v>
       </c>
@@ -1198,8 +1206,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="19" t="s">
         <v>31</v>
       </c>
@@ -1208,8 +1216,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="19" t="s">
         <v>34</v>
       </c>
@@ -1218,8 +1226,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="19" t="s">
         <v>32</v>
       </c>
@@ -1228,8 +1236,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="19" t="s">
         <v>25</v>
       </c>
@@ -1237,22 +1245,31 @@
         <v>17</v>
       </c>
     </row>
+    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A15:D19"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A15:D19"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syousuf/code/p/traccar/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842222E-96B2-7046-9C36-D2F94F2D4720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="-19780" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -204,6 +205,15 @@
     <t>E-mail: info@monitor.ethiogps.com</t>
   </si>
   <si>
+    <t>የሰሌዳ ቁጥር ምዝገባ ክፍለ ከተማ</t>
+  </si>
+  <si>
+    <t>${device.registrationSubCity}</t>
+  </si>
+  <si>
+    <t>በዚህ የቴክኒክ ገፅ ላይ ያሉ መረጃዎች በትክክል በሲስተማችን የተመዘገቡ መሆኑን እናረጋግጣለን</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">    ድርጅታችን ሰናም አህመድ አጠቃላይ አስመጪ ከመስረያቤታችሁ ጋር ባደረገው ወል መሰረት (</t>
     </r>
@@ -222,27 +232,18 @@
         <color theme="1"/>
         <rFont val="Abyssinica SIL"/>
       </rPr>
-      <t>) በገላችው ለ አንደ ሞተር ሳይክል GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በትህትና አንጠያቃለን።</t>
+      <t>) በገላችው ለ አንደ ሞተር ሳይክል የተፈቀደላቸውን የፊጥነት ገደብ ሲያልፍ ቀይ መብራት የሚያበራ GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በትህትና አንጠያቃለን።</t>
     </r>
-  </si>
-  <si>
-    <t>የሰሌዳ ቁጥር ምዝገባ ክፍለ ከተማ</t>
-  </si>
-  <si>
-    <t>${device.registrationSubCity}</t>
-  </si>
-  <si>
-    <t>በዚህ የቴክኒክ ገፅ ላይ ያሉ መረጃዎች በትክክል በሲስተማችን የተመዘገቡ መሆኑን እናረጋግጣለን</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,11 +390,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Abyssinica SIL"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Abyssinica SIL"/>
     </font>
     <font>
@@ -494,7 +490,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,41 +542,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -610,6 +603,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -877,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,23 +891,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,18 +921,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -964,43 +960,43 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
@@ -1045,20 +1041,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1069,13 +1065,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,11 +1079,11 @@
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
         <v>1</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -1097,9 +1093,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="34"/>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="19" t="s">
         <v>2</v>
       </c>
@@ -1107,11 +1103,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
         <v>2</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -1121,9 +1117,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="20" t="s">
         <v>33</v>
       </c>
@@ -1131,9 +1127,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="19" t="s">
         <v>28</v>
       </c>
@@ -1141,9 +1137,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="19" t="s">
         <v>4</v>
       </c>
@@ -1151,9 +1147,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="19" t="s">
         <v>20</v>
       </c>
@@ -1161,9 +1157,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="19" t="s">
         <v>21</v>
       </c>
@@ -1171,9 +1167,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="19" t="s">
         <v>24</v>
       </c>
@@ -1181,11 +1177,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="23">
         <v>3</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -1195,9 +1191,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30"/>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="19" t="s">
         <v>30</v>
       </c>
@@ -1205,9 +1201,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="19" t="s">
         <v>31</v>
       </c>
@@ -1216,8 +1212,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="19" t="s">
         <v>34</v>
       </c>
@@ -1225,9 +1221,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="19" t="s">
         <v>32</v>
       </c>
@@ -1236,8 +1232,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="19" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1243,7 @@
     </row>
     <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -1255,7 +1251,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A15:D19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -1263,13 +1258,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A15:D20"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/export/individual_device_report.xlsx
+++ b/templates/export/individual_device_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syousuf/code/p/traccar/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842222E-96B2-7046-9C36-D2F94F2D4720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784785B-FA5D-E149-94DD-6439D170B67F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>${device.vehicleModel}</t>
   </si>
   <si>
-    <t>${device.plateNumber}</t>
-  </si>
-  <si>
     <t>${device.countryOfManufacturing}</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
       </rPr>
       <t>) በገላችው ለ አንደ ሞተር ሳይክል የተፈቀደላቸውን የፊጥነት ገደብ ሲያልፍ ቀይ መብራት የሚያበራ GPS የተገጠመላቸወ በመሆኑ እና በድርጅታችን website (monitor.ethiogps.com) ላይ የሚታዩ በመሆኑ መስሪያ ቤታችሁ የሚያስፈልገውን ሁሉ አንድያደርግላቸው በትህትና አንጠያቃለን።</t>
     </r>
+  </si>
+  <si>
+    <t>${device.finalPlateNumber}</t>
   </si>
 </sst>
 </file>
@@ -539,14 +539,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -556,24 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,29 +891,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -921,18 +921,18 @@
       <c r="B6" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -960,43 +960,43 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="D32" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1032,29 +1032,29 @@
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="D36" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="D37" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1068,10 +1068,10 @@
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1080,22 +1080,22 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="A50" s="26">
         <v>1</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="19" t="s">
         <v>2</v>
       </c>
@@ -1104,11 +1104,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
+      <c r="A52" s="26">
         <v>2</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>38</v>
+      <c r="B52" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>3</v>
@@ -1118,146 +1118,139 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="19" t="s">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="19" t="s">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="26">
+        <v>3</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="23">
-        <v>3</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A15:D20"/>
     <mergeCell ref="A59:A64"/>
@@ -1266,6 +1259,13 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
